--- a/results/agr_a/scores_agr_a.xlsx
+++ b/results/agr_a/scores_agr_a.xlsx
@@ -408,7 +408,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8596</v>
+        <v>0.8453000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>0.8764</v>
@@ -432,7 +432,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8106</v>
+        <v>0.8289</v>
       </c>
       <c r="E3" t="n">
         <v>0.849</v>
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1447</v>
+        <v>0.1162</v>
       </c>
       <c r="E4" t="n">
         <v>0.0716</v>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.855</v>
+        <v>0.821</v>
       </c>
       <c r="E5" t="n">
         <v>0.875</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8186</v>
+        <v>0.8331</v>
       </c>
       <c r="E6" t="n">
         <v>0.8535</v>
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.1438</v>
+        <v>0.1224</v>
       </c>
       <c r="E7" t="n">
         <v>0.0871</v>
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>339.7401</v>
+        <v>196.9103</v>
       </c>
       <c r="E8" t="n">
-        <v>334.5746</v>
+        <v>175.7959</v>
       </c>
       <c r="F8" t="n">
-        <v>1073.9431</v>
+        <v>584.3853</v>
       </c>
     </row>
     <row r="9">
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.8497</v>
+        <v>3.8692</v>
       </c>
       <c r="E9" t="n">
-        <v>24.5631</v>
+        <v>13.4649</v>
       </c>
       <c r="F9" t="n">
-        <v>22.8493</v>
+        <v>13.5135</v>
       </c>
     </row>
   </sheetData>

--- a/results/agr_a/scores_agr_a.xlsx
+++ b/results/agr_a/scores_agr_a.xlsx
@@ -408,13 +408,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8453000000000001</v>
+        <v>0.8086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8764</v>
+        <v>0.8511</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9048</v>
+        <v>0.8966</v>
       </c>
     </row>
     <row r="3">
@@ -432,13 +432,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8289</v>
+        <v>0.7999000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.849</v>
+        <v>0.8398</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8971</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="4">
@@ -456,13 +456,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1162</v>
+        <v>0.1027</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0716</v>
+        <v>0.0733</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0342</v>
+        <v>0.07149999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -480,13 +480,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.821</v>
+        <v>0.785</v>
       </c>
       <c r="E5" t="n">
-        <v>0.875</v>
+        <v>0.855</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8995</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8331</v>
+        <v>0.802</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8535</v>
+        <v>0.8461</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9016999999999999</v>
+        <v>0.8719</v>
       </c>
     </row>
     <row r="7">
@@ -528,13 +528,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.1224</v>
+        <v>0.1083</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0871</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0519</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="8">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>196.9103</v>
+        <v>1919.1026</v>
       </c>
       <c r="E8" t="n">
-        <v>175.7959</v>
+        <v>187.9743</v>
       </c>
       <c r="F8" t="n">
-        <v>584.3853</v>
+        <v>620.2074</v>
       </c>
     </row>
     <row r="9">
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.8692</v>
+        <v>5.9299</v>
       </c>
       <c r="E9" t="n">
-        <v>13.4649</v>
+        <v>14.7029</v>
       </c>
       <c r="F9" t="n">
-        <v>13.5135</v>
+        <v>15.1381</v>
       </c>
     </row>
   </sheetData>

--- a/results/agr_a/scores_agr_a.xlsx
+++ b/results/agr_a/scores_agr_a.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,13 +408,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8086</v>
+        <v>0.8693</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8511</v>
+        <v>0.8427</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8966</v>
+        <v>0.9165</v>
       </c>
     </row>
     <row r="3">
@@ -432,13 +432,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7999000000000001</v>
+        <v>0.8505</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8398</v>
+        <v>0.8341</v>
       </c>
       <c r="F3" t="n">
-        <v>0.871</v>
+        <v>0.9031</v>
       </c>
     </row>
     <row r="4">
@@ -456,13 +456,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1027</v>
+        <v>0.0881</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0733</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07149999999999999</v>
+        <v>0.0486</v>
       </c>
     </row>
     <row r="5">
@@ -471,22 +471,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>min</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.785</v>
+        <v>0.4041</v>
       </c>
       <c r="E5" t="n">
-        <v>0.855</v>
+        <v>0.5268</v>
       </c>
       <c r="F5" t="n">
-        <v>0.91</v>
+        <v>0.6713</v>
       </c>
     </row>
     <row r="6">
@@ -495,22 +495,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>max</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.802</v>
+        <v>0.9634</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8461</v>
+        <v>0.9486</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8719</v>
+        <v>0.9577</v>
       </c>
     </row>
     <row r="7">
@@ -519,22 +519,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1083</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.08110000000000001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0902</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -543,22 +549,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>training time</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>median</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1919.1026</v>
+        <v>0.857</v>
       </c>
       <c r="E8" t="n">
-        <v>187.9743</v>
+        <v>0.852</v>
       </c>
       <c r="F8" t="n">
-        <v>620.2074</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="9">
@@ -567,22 +573,322 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8502</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8381999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9073</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1003</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0907</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.061</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.606</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7059</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6916</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.846</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6905</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6636</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8027</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1949</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1794</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1211</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.06950000000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1021</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1664</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9456</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9232</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.931</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>training time</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>708.6922</v>
+      </c>
+      <c r="E20" t="n">
+        <v>222.5156</v>
+      </c>
+      <c r="F20" t="n">
+        <v>590.275</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>prediction time</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>5.9299</v>
-      </c>
-      <c r="E9" t="n">
-        <v>14.7029</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15.1381</v>
+      <c r="D21" t="n">
+        <v>3.0867</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15.9358</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16.4024</v>
       </c>
     </row>
   </sheetData>
